--- a/notebooks/10_Indicators/13_Preprocess/solarp48.xlsx
+++ b/notebooks/10_Indicators/13_Preprocess/solarp48.xlsx
@@ -442,7 +442,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>datetime_utc</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -453,7 +453,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="B2" t="n">
         <v>0.25</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45418.01041666666</v>
+        <v>45420.01041666666</v>
       </c>
       <c r="B3" t="n">
         <v>0.25</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45418.02083333334</v>
+        <v>45420.02083333334</v>
       </c>
       <c r="B4" t="n">
         <v>0.25</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45418.03125</v>
+        <v>45420.03125</v>
       </c>
       <c r="B5" t="n">
         <v>0.25</v>
@@ -485,39 +485,39 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45418.04166666666</v>
+        <v>45420.04166666666</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45418.05208333334</v>
+        <v>45420.05208333334</v>
       </c>
       <c r="B7" t="n">
-        <v>0.25</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45418.0625</v>
+        <v>45420.0625</v>
       </c>
       <c r="B8" t="n">
-        <v>0.25</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45418.07291666666</v>
+        <v>45420.07291666666</v>
       </c>
       <c r="B9" t="n">
-        <v>0.25</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45418.08333333334</v>
+        <v>45420.08333333334</v>
       </c>
       <c r="B10" t="n">
         <v>0.25</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45418.09375</v>
+        <v>45420.09375</v>
       </c>
       <c r="B11" t="n">
         <v>0.25</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45418.10416666666</v>
+        <v>45420.10416666666</v>
       </c>
       <c r="B12" t="n">
         <v>0.25</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45418.11458333334</v>
+        <v>45420.11458333334</v>
       </c>
       <c r="B13" t="n">
         <v>0.25</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418.125</v>
+        <v>45420.125</v>
       </c>
       <c r="B14" t="n">
         <v>0.225</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45418.13541666666</v>
+        <v>45420.13541666666</v>
       </c>
       <c r="B15" t="n">
         <v>0.225</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45418.14583333334</v>
+        <v>45420.14583333334</v>
       </c>
       <c r="B16" t="n">
         <v>0.225</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45418.15625</v>
+        <v>45420.15625</v>
       </c>
       <c r="B17" t="n">
         <v>0.225</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45418.16666666666</v>
+        <v>45420.16666666666</v>
       </c>
       <c r="B18" t="n">
         <v>0.225</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45418.17708333334</v>
+        <v>45420.17708333334</v>
       </c>
       <c r="B19" t="n">
         <v>0.225</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45418.1875</v>
+        <v>45420.1875</v>
       </c>
       <c r="B20" t="n">
         <v>0.225</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45418.19791666666</v>
+        <v>45420.19791666666</v>
       </c>
       <c r="B21" t="n">
         <v>0.225</v>
@@ -613,610 +613,610 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45418.20833333334</v>
+        <v>45420.20833333334</v>
       </c>
       <c r="B22" t="n">
-        <v>0.25</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45418.21875</v>
+        <v>45420.21875</v>
       </c>
       <c r="B23" t="n">
-        <v>0.25</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45418.22916666666</v>
+        <v>45420.22916666666</v>
       </c>
       <c r="B24" t="n">
-        <v>0.25</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45418.23958333334</v>
+        <v>45420.23958333334</v>
       </c>
       <c r="B25" t="n">
-        <v>0.25</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45418.25</v>
+        <v>45420.25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.375</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45418.26041666666</v>
+        <v>45420.26041666666</v>
       </c>
       <c r="B27" t="n">
-        <v>0.375</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45418.27083333334</v>
+        <v>45420.27083333334</v>
       </c>
       <c r="B28" t="n">
-        <v>0.375</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45418.28125</v>
+        <v>45420.28125</v>
       </c>
       <c r="B29" t="n">
-        <v>0.375</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45418.29166666666</v>
+        <v>45420.29166666666</v>
       </c>
       <c r="B30" t="n">
-        <v>123.725</v>
+        <v>243.775</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45418.30208333334</v>
+        <v>45420.30208333334</v>
       </c>
       <c r="B31" t="n">
-        <v>125.225</v>
+        <v>245.975</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45418.3125</v>
+        <v>45420.3125</v>
       </c>
       <c r="B32" t="n">
-        <v>127.725</v>
+        <v>251.91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45418.32291666666</v>
+        <v>45420.32291666666</v>
       </c>
       <c r="B33" t="n">
-        <v>132.725</v>
+        <v>254.125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45418.33333333334</v>
+        <v>45420.33333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>778.575</v>
+        <v>1447.525</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45418.34375</v>
+        <v>45420.34375</v>
       </c>
       <c r="B35" t="n">
-        <v>789.575</v>
+        <v>1432.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45418.35416666666</v>
+        <v>45420.35416666666</v>
       </c>
       <c r="B36" t="n">
-        <v>798.075</v>
+        <v>1454.575</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45418.36458333334</v>
+        <v>45420.36458333334</v>
       </c>
       <c r="B37" t="n">
-        <v>798.075</v>
+        <v>1332.675</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45418.375</v>
+        <v>45420.375</v>
       </c>
       <c r="B38" t="n">
-        <v>1952.5</v>
+        <v>3003.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45418.38541666666</v>
+        <v>45420.38541666666</v>
       </c>
       <c r="B39" t="n">
-        <v>1948</v>
+        <v>3003.55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45418.39583333334</v>
+        <v>45420.39583333334</v>
       </c>
       <c r="B40" t="n">
-        <v>1960.5</v>
+        <v>3002.225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45418.40625</v>
+        <v>45420.40625</v>
       </c>
       <c r="B41" t="n">
-        <v>1975.725</v>
+        <v>2876.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45418.41666666666</v>
+        <v>45420.41666666666</v>
       </c>
       <c r="B42" t="n">
-        <v>2999.825</v>
+        <v>3848.35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45418.42708333334</v>
+        <v>45420.42708333334</v>
       </c>
       <c r="B43" t="n">
-        <v>2999.825</v>
+        <v>3844.75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45418.4375</v>
+        <v>45420.4375</v>
       </c>
       <c r="B44" t="n">
-        <v>3001.1</v>
+        <v>3581.95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45418.44791666666</v>
+        <v>45420.44791666666</v>
       </c>
       <c r="B45" t="n">
-        <v>2973.775</v>
+        <v>3489.025</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45418.45833333334</v>
+        <v>45420.45833333334</v>
       </c>
       <c r="B46" t="n">
-        <v>3506</v>
+        <v>4271.175</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45418.46875</v>
+        <v>45420.46875</v>
       </c>
       <c r="B47" t="n">
-        <v>3492.25</v>
+        <v>4193.475</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45418.47916666666</v>
+        <v>45420.47916666666</v>
       </c>
       <c r="B48" t="n">
-        <v>3492.75</v>
+        <v>4028.445</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45418.48958333334</v>
+        <v>45420.48958333334</v>
       </c>
       <c r="B49" t="n">
-        <v>3495.5</v>
+        <v>3890.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45418.5</v>
+        <v>45420.5</v>
       </c>
       <c r="B50" t="n">
-        <v>3831.55</v>
+        <v>4345.925</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45418.51041666666</v>
+        <v>45420.51041666666</v>
       </c>
       <c r="B51" t="n">
-        <v>3831.55</v>
+        <v>4261.025</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45418.52083333334</v>
+        <v>45420.52083333334</v>
       </c>
       <c r="B52" t="n">
-        <v>3831.55</v>
+        <v>4143.725</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45418.53125</v>
+        <v>45420.53125</v>
       </c>
       <c r="B53" t="n">
-        <v>3831.55</v>
+        <v>4138.85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45418.54166666666</v>
+        <v>45420.54166666666</v>
       </c>
       <c r="B54" t="n">
-        <v>4073.025</v>
+        <v>4310.55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45418.55208333334</v>
+        <v>45420.55208333334</v>
       </c>
       <c r="B55" t="n">
-        <v>4073.025</v>
+        <v>4349.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45418.5625</v>
+        <v>45420.5625</v>
       </c>
       <c r="B56" t="n">
-        <v>4073.025</v>
+        <v>4450.325</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45418.57291666666</v>
+        <v>45420.57291666666</v>
       </c>
       <c r="B57" t="n">
-        <v>4073.025</v>
+        <v>4450.825</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45418.58333333334</v>
+        <v>45420.58333333334</v>
       </c>
       <c r="B58" t="n">
-        <v>4183.375</v>
+        <v>4585.25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45418.59375</v>
+        <v>45420.59375</v>
       </c>
       <c r="B59" t="n">
-        <v>4183.375</v>
+        <v>4585.25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45418.60416666666</v>
+        <v>45420.60416666666</v>
       </c>
       <c r="B60" t="n">
-        <v>4183.375</v>
+        <v>4585.25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45418.61458333334</v>
+        <v>45420.61458333334</v>
       </c>
       <c r="B61" t="n">
-        <v>4183.375</v>
+        <v>4585.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45418.625</v>
+        <v>45420.625</v>
       </c>
       <c r="B62" t="n">
-        <v>4162</v>
+        <v>4521.275</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45418.63541666666</v>
+        <v>45420.63541666666</v>
       </c>
       <c r="B63" t="n">
-        <v>4162</v>
+        <v>4521.275</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45418.64583333334</v>
+        <v>45420.64583333334</v>
       </c>
       <c r="B64" t="n">
-        <v>4162</v>
+        <v>4521.275</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45418.65625</v>
+        <v>45420.65625</v>
       </c>
       <c r="B65" t="n">
-        <v>4162</v>
+        <v>4521.275</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45418.66666666666</v>
+        <v>45420.66666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>4026.625</v>
+        <v>4367.7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45418.67708333334</v>
+        <v>45420.67708333334</v>
       </c>
       <c r="B67" t="n">
-        <v>4026.625</v>
+        <v>4367.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45418.6875</v>
+        <v>45420.6875</v>
       </c>
       <c r="B68" t="n">
-        <v>4026.625</v>
+        <v>4367.7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45418.69791666666</v>
+        <v>45420.69791666666</v>
       </c>
       <c r="B69" t="n">
-        <v>4026.625</v>
+        <v>4367.7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45418.70833333334</v>
+        <v>45420.70833333334</v>
       </c>
       <c r="B70" t="n">
-        <v>3760.225</v>
+        <v>4058.75</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45418.71875</v>
+        <v>45420.71875</v>
       </c>
       <c r="B71" t="n">
-        <v>3760.225</v>
+        <v>4058.75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45418.72916666666</v>
+        <v>45420.72916666666</v>
       </c>
       <c r="B72" t="n">
-        <v>3760.225</v>
+        <v>4058.75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45418.73958333334</v>
+        <v>45420.73958333334</v>
       </c>
       <c r="B73" t="n">
-        <v>3760.225</v>
+        <v>4058.75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45418.75</v>
+        <v>45420.75</v>
       </c>
       <c r="B74" t="n">
-        <v>3216.425</v>
+        <v>3410.15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45418.76041666666</v>
+        <v>45420.76041666666</v>
       </c>
       <c r="B75" t="n">
-        <v>3216.425</v>
+        <v>3410.15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45418.77083333334</v>
+        <v>45420.77083333334</v>
       </c>
       <c r="B76" t="n">
-        <v>3216.425</v>
+        <v>3410.15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45418.78125</v>
+        <v>45420.78125</v>
       </c>
       <c r="B77" t="n">
-        <v>3216.425</v>
+        <v>3410.15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45418.79166666666</v>
+        <v>45420.79166666666</v>
       </c>
       <c r="B78" t="n">
-        <v>2046.825</v>
+        <v>2200.025</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45418.80208333334</v>
+        <v>45420.80208333334</v>
       </c>
       <c r="B79" t="n">
-        <v>2046.825</v>
+        <v>2200.025</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45418.8125</v>
+        <v>45420.8125</v>
       </c>
       <c r="B80" t="n">
-        <v>2046.825</v>
+        <v>2200.025</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45418.82291666666</v>
+        <v>45420.82291666666</v>
       </c>
       <c r="B81" t="n">
-        <v>2046.825</v>
+        <v>2200.025</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45418.83333333334</v>
+        <v>45420.83333333334</v>
       </c>
       <c r="B82" t="n">
-        <v>598.125</v>
+        <v>668.75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45418.84375</v>
+        <v>45420.84375</v>
       </c>
       <c r="B83" t="n">
-        <v>598.125</v>
+        <v>668.75</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45418.85416666666</v>
+        <v>45420.85416666666</v>
       </c>
       <c r="B84" t="n">
-        <v>598.125</v>
+        <v>668.75</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45418.86458333334</v>
+        <v>45420.86458333334</v>
       </c>
       <c r="B85" t="n">
-        <v>598.125</v>
+        <v>668.75</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45418.875</v>
+        <v>45420.875</v>
       </c>
       <c r="B86" t="n">
-        <v>18.9</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45418.88541666666</v>
+        <v>45420.88541666666</v>
       </c>
       <c r="B87" t="n">
-        <v>18.9</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45418.89583333334</v>
+        <v>45420.89583333334</v>
       </c>
       <c r="B88" t="n">
-        <v>18.9</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45418.90625</v>
+        <v>45420.90625</v>
       </c>
       <c r="B89" t="n">
-        <v>18.9</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45418.91666666666</v>
+        <v>45420.91666666666</v>
       </c>
       <c r="B90" t="n">
-        <v>2.8</v>
+        <v>2.575</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45418.92708333334</v>
+        <v>45420.92708333334</v>
       </c>
       <c r="B91" t="n">
-        <v>2.8</v>
+        <v>2.575</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45418.9375</v>
+        <v>45420.9375</v>
       </c>
       <c r="B92" t="n">
-        <v>2.8</v>
+        <v>2.575</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45418.94791666666</v>
+        <v>45420.94791666666</v>
       </c>
       <c r="B93" t="n">
-        <v>2.8</v>
+        <v>2.575</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45418.95833333334</v>
+        <v>45420.95833333334</v>
       </c>
       <c r="B94" t="n">
-        <v>2.7</v>
+        <v>2.475</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45418.96875</v>
+        <v>45420.96875</v>
       </c>
       <c r="B95" t="n">
-        <v>2.7</v>
+        <v>2.475</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45418.97916666666</v>
+        <v>45420.97916666666</v>
       </c>
       <c r="B96" t="n">
-        <v>2.7</v>
+        <v>2.475</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45418.98958333334</v>
+        <v>45420.98958333334</v>
       </c>
       <c r="B97" t="n">
-        <v>2.7</v>
+        <v>2.475</v>
       </c>
     </row>
   </sheetData>
